--- a/NOMECLATURA - OSBOCABERTAS.xlsx
+++ b/NOMECLATURA - OSBOCABERTAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Abreu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fd8d85a0d8df2b2/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2A1538-9D83-47C4-8D04-F9FC1C4305F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F8D6EEE-7243-4B75-B7E4-897438AE33A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>IP device</t>
   </si>
@@ -45,164 +45,167 @@
     <t>Gateway</t>
   </si>
   <si>
-    <t>192.168.5.32</t>
-  </si>
-  <si>
     <t>ESP</t>
   </si>
   <si>
     <t xml:space="preserve"> ESP 1</t>
   </si>
   <si>
-    <t>192.168.5.63</t>
-  </si>
-  <si>
-    <t>192.168.5.1</t>
-  </si>
-  <si>
-    <t>192.168.5.33</t>
-  </si>
-  <si>
     <t>ESP 2</t>
   </si>
   <si>
-    <t>192.168.5.34</t>
-  </si>
-  <si>
     <t>ESP 3</t>
   </si>
   <si>
-    <t>192.168.5.35</t>
-  </si>
-  <si>
     <t>ESP 4</t>
   </si>
   <si>
-    <t>192.168.5.36</t>
-  </si>
-  <si>
     <t>ESP 5</t>
   </si>
   <si>
-    <t>192.168.5.37</t>
-  </si>
-  <si>
     <t>ESP 6</t>
   </si>
   <si>
     <t xml:space="preserve">Endereço IP </t>
   </si>
   <si>
-    <t>192.168.5.38</t>
-  </si>
-  <si>
     <t>ESP 7</t>
   </si>
   <si>
     <t>192.168.5.0</t>
   </si>
   <si>
-    <t>192.168.5.39</t>
-  </si>
-  <si>
     <t>ESP 8</t>
   </si>
   <si>
-    <t>192.168.5.40</t>
-  </si>
-  <si>
     <t>ESP 9</t>
   </si>
   <si>
-    <t>192.168.5.41</t>
-  </si>
-  <si>
     <t>ESP 10</t>
   </si>
   <si>
-    <t>192.168.5.42</t>
-  </si>
-  <si>
-    <t>192.168.5.43</t>
-  </si>
-  <si>
-    <t>192.168.5.44</t>
-  </si>
-  <si>
-    <t>192.168.5.45</t>
-  </si>
-  <si>
-    <t>192.168.5.46</t>
-  </si>
-  <si>
     <t>RASPBERRY PI</t>
   </si>
   <si>
     <t>SERVIDOR</t>
   </si>
   <si>
-    <t>192.168.5.47</t>
-  </si>
-  <si>
     <t>COMPUTADORES -MANUAL</t>
   </si>
   <si>
     <t>MONITORAMENTO</t>
   </si>
   <si>
-    <t>192.168.5.48</t>
-  </si>
-  <si>
-    <t>192.168.5.49</t>
-  </si>
-  <si>
-    <t>192.168.5.50</t>
-  </si>
-  <si>
     <t>DHCP</t>
   </si>
   <si>
-    <t>192.168.5.51</t>
-  </si>
-  <si>
-    <t>192.168.5.52</t>
-  </si>
-  <si>
-    <t>192.168.5.53</t>
-  </si>
-  <si>
-    <t>192.168.5.54</t>
-  </si>
-  <si>
-    <t>192.168.5.55</t>
-  </si>
-  <si>
-    <t>192.168.5.56</t>
-  </si>
-  <si>
-    <t>192.168.5.57</t>
-  </si>
-  <si>
-    <t>192.168.5.58</t>
-  </si>
-  <si>
-    <t>192.168.5.59</t>
-  </si>
-  <si>
-    <t>192.168.5.60</t>
-  </si>
-  <si>
-    <t>192.168.5.61</t>
-  </si>
-  <si>
-    <t>192.168.5.62</t>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>192.168.1.256</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>192.168.1.10</t>
+  </si>
+  <si>
+    <t>192.168.1.11</t>
+  </si>
+  <si>
+    <t>192.168.1.12</t>
+  </si>
+  <si>
+    <t>192.168.1.13</t>
+  </si>
+  <si>
+    <t>192.168.1.14</t>
+  </si>
+  <si>
+    <t>192.168.1.15</t>
+  </si>
+  <si>
+    <t>192.168.1.16</t>
+  </si>
+  <si>
+    <t>192.168.1.17</t>
+  </si>
+  <si>
+    <t>192.168.1.18</t>
+  </si>
+  <si>
+    <t>192.168.1.19</t>
+  </si>
+  <si>
+    <t>192.168.1.20</t>
+  </si>
+  <si>
+    <t>192.168.1.21</t>
+  </si>
+  <si>
+    <t>192.168.1.22</t>
+  </si>
+  <si>
+    <t>192.168.1.23</t>
+  </si>
+  <si>
+    <t>192.168.1.24</t>
+  </si>
+  <si>
+    <t>192.168.1.25</t>
+  </si>
+  <si>
+    <t>192.168.1.26</t>
+  </si>
+  <si>
+    <t>192.168.1.27</t>
+  </si>
+  <si>
+    <t>192.168.1.28</t>
+  </si>
+  <si>
+    <t>192.168.1.29</t>
+  </si>
+  <si>
+    <t>192.168.1.30</t>
+  </si>
+  <si>
+    <t>192.168.1.31</t>
+  </si>
+  <si>
+    <t>192.168.1.32</t>
+  </si>
+  <si>
+    <t>192.168.1.33</t>
+  </si>
+  <si>
+    <t>192.168.1.34</t>
+  </si>
+  <si>
+    <t>192.168.1.35</t>
+  </si>
+  <si>
+    <t>192.168.1.36</t>
+  </si>
+  <si>
+    <t>192.168.1.37</t>
+  </si>
+  <si>
+    <t>192.168.1.38</t>
+  </si>
+  <si>
+    <t>192.168.1.39</t>
+  </si>
+  <si>
+    <t>192.168.1.40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -237,6 +240,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -602,7 +610,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -639,151 +647,151 @@
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="8">
-        <v>255255255224</v>
+      <c r="F2" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="15">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="15">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="15">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="G8" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="15">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="15">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -792,7 +800,7 @@
     </row>
     <row r="13" spans="1:8" ht="15">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -801,7 +809,7 @@
     </row>
     <row r="14" spans="1:8" ht="15">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -810,7 +818,7 @@
     </row>
     <row r="15" spans="1:8" ht="15">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -819,183 +827,183 @@
     </row>
     <row r="16" spans="1:8" ht="15">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" ht="15">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="15">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15">
       <c r="A27" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15">
       <c r="A32" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15">
@@ -1007,6 +1015,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
